--- a/Presentaciones/Ejercicio-Normalización.xlsx
+++ b/Presentaciones/Ejercicio-Normalización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MisionTIC2022-Ciclo2-Grupo464748\MisionTIC2022-Ciclo2-Grupo464748\Presentaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E88EB637-CAAE-4DE5-83B3-1512E077F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392AD57-8C84-42D6-97C1-53702AAFA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19545" yWindow="5055" windowWidth="10695" windowHeight="11835" xr2:uid="{6B540A3F-B688-4F28-ADA0-44449FB29F49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6B540A3F-B688-4F28-ADA0-44449FB29F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
   <si>
     <t>Julio</t>
   </si>
@@ -180,6 +180,18 @@
 2. El asesor está asignado a una única sucursal. 
 3. El asesor está asignado a un tipo de cuenta. 
 4. El numero del cliente es único en todo el banco.</t>
+  </si>
+  <si>
+    <t>ID Número proyecto</t>
+  </si>
+  <si>
+    <t>ID Número Empleado</t>
+  </si>
+  <si>
+    <t>ID CARGO</t>
+  </si>
+  <si>
+    <t>ID Cargo</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -301,17 +313,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,15 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -355,6 +370,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34A993-08E4-48E3-9572-7AAF8E61486A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,323 +724,1033 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>103</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>8000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7">
         <v>101</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>10000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="7">
         <v>105</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>10000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7">
         <v>106</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>3500</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8">
         <v>102</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>9000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="14">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>114</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>10000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7">
         <v>118</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>2000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7">
         <v>104</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>9000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="8">
         <v>112</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>9000</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="14">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>105</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>10000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7">
         <v>104</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>9000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7">
         <v>113</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>10000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="7">
         <v>111</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>2000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="8">
         <v>106</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>3500</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19">
+        <v>103</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="20">
+        <v>8000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19">
+        <v>101</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="20">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="19">
+        <v>105</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19">
+        <v>106</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="20">
+        <v>3500</v>
+      </c>
+      <c r="G24" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>15</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <v>114</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>18</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19">
+        <v>118</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>18</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19">
+        <v>104</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>18</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="19">
+        <v>112</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="19">
+        <v>105</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>22</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="19">
+        <v>104</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>22</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="19">
+        <v>113</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>22</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="19">
+        <v>111</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>22</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G34" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>15</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="19">
+        <v>103</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="20">
+        <v>8000</v>
+      </c>
+      <c r="M38" s="18">
+        <v>15</v>
+      </c>
+      <c r="N38" s="19">
+        <v>103</v>
+      </c>
+      <c r="O38" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>18</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="19">
+        <v>101</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21">
+        <v>2</v>
+      </c>
+      <c r="I39" s="21">
+        <v>2</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="20">
+        <v>10000</v>
+      </c>
+      <c r="M39" s="18">
+        <v>15</v>
+      </c>
+      <c r="N39" s="19">
+        <v>101</v>
+      </c>
+      <c r="O39" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>22</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="19">
+        <v>105</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2</v>
+      </c>
+      <c r="I40" s="21">
+        <v>3</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="20">
+        <v>3500</v>
+      </c>
+      <c r="M40" s="18">
+        <v>15</v>
+      </c>
+      <c r="N40" s="19">
+        <v>105</v>
+      </c>
+      <c r="O40" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="19">
+        <v>106</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="21">
+        <v>3</v>
+      </c>
+      <c r="I41" s="21">
+        <v>4</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="20">
+        <v>9000</v>
+      </c>
+      <c r="M41" s="18">
+        <v>15</v>
+      </c>
+      <c r="N41" s="19">
+        <v>106</v>
+      </c>
+      <c r="O41" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="19">
+        <v>102</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="21">
+        <v>4</v>
+      </c>
+      <c r="I42" s="21">
+        <v>5</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="20">
+        <v>2000</v>
+      </c>
+      <c r="M42" s="18">
+        <v>15</v>
+      </c>
+      <c r="N42" s="19">
+        <v>102</v>
+      </c>
+      <c r="O42" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="19">
+        <v>114</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="21">
+        <v>2</v>
+      </c>
+      <c r="I43" s="21">
+        <v>6</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="20">
+        <v>2000</v>
+      </c>
+      <c r="M43" s="18">
+        <v>18</v>
+      </c>
+      <c r="N43" s="19">
+        <v>114</v>
+      </c>
+      <c r="O43" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="19">
+        <v>118</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="21">
+        <v>5</v>
+      </c>
+      <c r="M44" s="18">
+        <v>18</v>
+      </c>
+      <c r="N44" s="19">
+        <v>118</v>
+      </c>
+      <c r="O44" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="19">
+        <v>104</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="21">
+        <v>4</v>
+      </c>
+      <c r="M45" s="18">
+        <v>18</v>
+      </c>
+      <c r="N45" s="19">
+        <v>104</v>
+      </c>
+      <c r="O45" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="19">
+        <v>112</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="21">
+        <v>4</v>
+      </c>
+      <c r="M46" s="18">
+        <v>18</v>
+      </c>
+      <c r="N46" s="19">
+        <v>112</v>
+      </c>
+      <c r="O46" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="19">
+        <v>113</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="21">
+        <v>2</v>
+      </c>
+      <c r="M47" s="18">
+        <v>22</v>
+      </c>
+      <c r="N47" s="19">
+        <v>105</v>
+      </c>
+      <c r="O47" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="19">
+        <v>111</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="21">
+        <v>6</v>
+      </c>
+      <c r="M48" s="18">
+        <v>22</v>
+      </c>
+      <c r="N48" s="19">
+        <v>104</v>
+      </c>
+      <c r="O48" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="18">
+        <v>22</v>
+      </c>
+      <c r="N49" s="19">
+        <v>113</v>
+      </c>
+      <c r="O49" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="18">
+        <v>22</v>
+      </c>
+      <c r="N50" s="19">
+        <v>111</v>
+      </c>
+      <c r="O50" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="17">
+        <v>22</v>
+      </c>
+      <c r="N51" s="8">
+        <v>106</v>
+      </c>
+      <c r="O51" s="5">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1021,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C14C4C-A720-42C2-9B59-919661B5B257}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,255 +1788,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>3579</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7">
         <v>56</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>9368</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="7">
         <v>98</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>2049</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7">
         <v>76</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>4875</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>1093</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>90</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>8374</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>6</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7">
         <v>45</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>2764</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7">
         <v>89</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>8953</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>6192</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Presentaciones/Ejercicio-Normalización.xlsx
+++ b/Presentaciones/Ejercicio-Normalización.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MisionTIC2022-Ciclo2-Grupo464748\MisionTIC2022-Ciclo2-Grupo464748\Presentaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392AD57-8C84-42D6-97C1-53702AAFA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1E011-851F-479B-8626-182C9C7A2151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6B540A3F-B688-4F28-ADA0-44449FB29F49}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="57">
   <si>
     <t>Julio</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>ID Cargo</t>
+  </si>
+  <si>
+    <t>ID_Número Sucursal</t>
+  </si>
+  <si>
+    <t>ID_Número Asesor</t>
+  </si>
+  <si>
+    <t>ID_TipoCuenta</t>
+  </si>
+  <si>
+    <t>ID_Número Cliente</t>
+  </si>
+  <si>
+    <t>ID_Número Cuenta</t>
+  </si>
+  <si>
+    <t>ID_Tipo_Cuenta</t>
   </si>
 </sst>
 </file>
@@ -332,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,6 +385,19 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -382,19 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -761,10 +785,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="19">
         <v>15</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="6">
@@ -784,8 +808,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="7">
         <v>101</v>
       </c>
@@ -803,8 +827,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="7">
         <v>105</v>
       </c>
@@ -822,8 +846,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7">
         <v>106</v>
       </c>
@@ -841,8 +865,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8">
         <v>102</v>
       </c>
@@ -860,10 +884,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="19">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6">
@@ -883,8 +907,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="7">
         <v>118</v>
       </c>
@@ -902,8 +926,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7">
         <v>104</v>
       </c>
@@ -921,8 +945,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="8">
         <v>112</v>
       </c>
@@ -940,10 +964,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="19">
         <v>22</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="6">
@@ -963,8 +987,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="7">
         <v>104</v>
       </c>
@@ -982,8 +1006,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="7">
         <v>113</v>
       </c>
@@ -1001,8 +1025,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="7">
         <v>111</v>
       </c>
@@ -1020,8 +1044,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="8">
         <v>106</v>
       </c>
@@ -1039,13 +1063,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1071,309 +1095,309 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="14">
         <v>103</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>8000</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="13">
         <v>15</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="14">
         <v>101</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>10000</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="13">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="14">
         <v>105</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>10000</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="14">
         <v>106</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="15">
         <v>3500</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="13">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="14">
         <v>102</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="20">
+      <c r="E25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15">
         <v>9000</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="13">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="14">
         <v>114</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>10000</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="14">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="13">
         <v>18</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="14">
         <v>118</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="15">
         <v>2000</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="13">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="14">
         <v>104</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="20">
+      <c r="E28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15">
         <v>9000</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="13">
         <v>18</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="14">
         <v>112</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="20">
+      <c r="E29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15">
         <v>9000</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="13">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <v>105</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="15">
         <v>10000</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="14">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="13">
         <v>22</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="14">
         <v>104</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="20">
+      <c r="E31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15">
         <v>9000</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="14">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="13">
         <v>22</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="14">
         <v>113</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="15">
         <v>10000</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="13">
         <v>22</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="14">
         <v>111</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="15">
         <v>2000</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="12">
         <v>22</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="8">
@@ -1392,7 +1416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1428,321 +1452,321 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="13">
         <v>15</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <v>103</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <v>1</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="16">
         <v>1</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="15">
         <v>8000</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="13">
         <v>15</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="14">
         <v>103</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="13">
         <v>18</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <v>101</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>2</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="16">
         <v>2</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="15">
         <v>10000</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="13">
         <v>15</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="14">
         <v>101</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="13">
         <v>22</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <v>105</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <v>2</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="16">
         <v>3</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="15">
         <v>3500</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="13">
         <v>15</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="14">
         <v>105</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="19">
+      <c r="D41" s="14">
         <v>106</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <v>3</v>
       </c>
-      <c r="I41" s="21">
-        <v>4</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="20">
+      <c r="I41" s="16">
+        <v>4</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="15">
         <v>9000</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="13">
         <v>15</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="14">
         <v>106</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <v>102</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="21">
-        <v>4</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="F42" s="16">
+        <v>4</v>
+      </c>
+      <c r="I42" s="16">
         <v>5</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="15">
         <v>2000</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="13">
         <v>15</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="14">
         <v>102</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D43" s="19">
+      <c r="D43" s="14">
         <v>114</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <v>2</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="16">
         <v>6</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="15">
         <v>2000</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="13">
         <v>18</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="14">
         <v>114</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="14">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="19">
+      <c r="D44" s="14">
         <v>118</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <v>5</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="13">
         <v>18</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="14">
         <v>118</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D45" s="19">
+      <c r="D45" s="14">
         <v>104</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="21">
-        <v>4</v>
-      </c>
-      <c r="M45" s="18">
+      <c r="F45" s="16">
+        <v>4</v>
+      </c>
+      <c r="M45" s="13">
         <v>18</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="14">
         <v>104</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D46" s="19">
+      <c r="D46" s="14">
         <v>112</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="21">
-        <v>4</v>
-      </c>
-      <c r="M46" s="18">
+      <c r="F46" s="16">
+        <v>4</v>
+      </c>
+      <c r="M46" s="13">
         <v>18</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="14">
         <v>112</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D47" s="19">
+      <c r="D47" s="14">
         <v>113</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <v>2</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="13">
         <v>22</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="14">
         <v>105</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="14">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <v>111</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="16">
         <v>6</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="13">
         <v>22</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="14">
         <v>104</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="14">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M49" s="18">
+      <c r="M49" s="13">
         <v>22</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="14">
         <v>113</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M50" s="18">
+      <c r="M50" s="13">
         <v>22</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="14">
         <v>111</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O50" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M51" s="17">
+      <c r="M51" s="12">
         <v>22</v>
       </c>
       <c r="N51" s="8">
@@ -1769,31 +1793,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C14C4C-A720-42C2-9B59-919661B5B257}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1822,10 +1847,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="19">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="6">
@@ -1848,8 +1873,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="7">
         <v>56</v>
       </c>
@@ -1870,8 +1895,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="7">
         <v>98</v>
       </c>
@@ -1892,8 +1917,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7">
         <v>76</v>
       </c>
@@ -1914,8 +1939,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8">
         <v>23</v>
       </c>
@@ -1936,10 +1961,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6">
@@ -1962,8 +1987,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="7">
         <v>45</v>
       </c>
@@ -1984,8 +2009,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="7">
         <v>89</v>
       </c>
@@ -2006,8 +2031,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="8">
         <v>32</v>
       </c>
@@ -2028,15 +2053,681 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3579</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>4</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="14">
+        <v>56</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>9368</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="14">
+        <v>7</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14">
+        <v>98</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2049</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="14">
+        <v>76</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4875</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="14">
+        <v>9</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14">
+        <v>23</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1093</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14">
+        <v>90</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <v>8374</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="14">
+        <v>6</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="14">
+        <v>45</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2764</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="14">
+        <v>4</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>8</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="14">
+        <v>89</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
+        <v>8953</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="14">
+        <v>8</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>8</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="14">
+        <v>32</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="14">
+        <v>6192</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>4</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="14">
+        <v>24</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>4</v>
+      </c>
+      <c r="H31" s="14">
+        <v>3579</v>
+      </c>
+      <c r="I31" s="22">
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
+        <v>5</v>
+      </c>
+      <c r="L31" s="14">
+        <v>5</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>8</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14">
+        <v>56</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>4</v>
+      </c>
+      <c r="H32" s="14">
+        <v>9368</v>
+      </c>
+      <c r="I32" s="22">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23">
+        <v>7</v>
+      </c>
+      <c r="L32" s="14">
+        <v>7</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="14">
+        <v>98</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13">
+        <v>4</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2049</v>
+      </c>
+      <c r="I33" s="22">
+        <v>2</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2</v>
+      </c>
+      <c r="L33" s="14">
+        <v>2</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="14">
+        <v>76</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13">
+        <v>4</v>
+      </c>
+      <c r="H34" s="14">
+        <v>4875</v>
+      </c>
+      <c r="I34" s="22">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23">
+        <v>9</v>
+      </c>
+      <c r="L34" s="14">
+        <v>9</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="14">
+        <v>23</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="13">
+        <v>4</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1093</v>
+      </c>
+      <c r="I35" s="22">
+        <v>2</v>
+      </c>
+      <c r="J35" s="23">
+        <v>3</v>
+      </c>
+      <c r="L35" s="14">
+        <v>3</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="14">
+        <v>90</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="13">
+        <v>8</v>
+      </c>
+      <c r="H36" s="14">
+        <v>8374</v>
+      </c>
+      <c r="I36" s="22">
+        <v>2</v>
+      </c>
+      <c r="J36" s="23">
+        <v>6</v>
+      </c>
+      <c r="L36" s="14">
+        <v>6</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="14">
+        <v>45</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="13">
+        <v>8</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2764</v>
+      </c>
+      <c r="I37" s="22">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23">
+        <v>4</v>
+      </c>
+      <c r="L37" s="14">
+        <v>4</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="14">
+        <v>89</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="13">
+        <v>8</v>
+      </c>
+      <c r="H38" s="14">
+        <v>8953</v>
+      </c>
+      <c r="I38" s="22">
+        <v>1</v>
+      </c>
+      <c r="J38" s="23">
+        <v>8</v>
+      </c>
+      <c r="L38" s="14">
+        <v>8</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="14">
+        <v>32</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="13">
+        <v>8</v>
+      </c>
+      <c r="H39" s="14">
+        <v>6192</v>
+      </c>
+      <c r="I39" s="22">
+        <v>1</v>
+      </c>
+      <c r="J39" s="23">
+        <v>1</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="14">
+        <v>24</v>
+      </c>
+      <c r="G43" s="14">
+        <v>3579</v>
+      </c>
+      <c r="H43" s="23">
+        <v>5</v>
+      </c>
+      <c r="L43" s="16">
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="14">
+        <v>56</v>
+      </c>
+      <c r="G44" s="14">
+        <v>9368</v>
+      </c>
+      <c r="H44" s="23">
+        <v>7</v>
+      </c>
+      <c r="L44" s="16">
+        <v>2</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="14">
+        <v>98</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2049</v>
+      </c>
+      <c r="H45" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="14">
+        <v>76</v>
+      </c>
+      <c r="G46" s="14">
+        <v>4875</v>
+      </c>
+      <c r="H46" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="14">
+        <v>23</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1093</v>
+      </c>
+      <c r="H47" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="14">
+        <v>90</v>
+      </c>
+      <c r="G48" s="14">
+        <v>8374</v>
+      </c>
+      <c r="H48" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="14">
+        <v>45</v>
+      </c>
+      <c r="G49" s="14">
+        <v>2764</v>
+      </c>
+      <c r="H49" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="14">
+        <v>89</v>
+      </c>
+      <c r="G50" s="14">
+        <v>8953</v>
+      </c>
+      <c r="H50" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="14">
+        <v>32</v>
+      </c>
+      <c r="G51" s="14">
+        <v>6192</v>
+      </c>
+      <c r="H51" s="23">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
